--- a/Excel/TestData.xlsx
+++ b/Excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\GroceryProject\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB47715-3197-4225-8EE0-4BC4361F2F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850ED29E-F600-41EE-97BC-DCE0D14ADE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C02DC098-BD42-4DED-9B0F-775B8BB78BAF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -78,16 +78,13 @@
     <t>5555555555552222</t>
   </si>
   <si>
+    <t>Order No: 948109</t>
+  </si>
+  <si>
     <t>YUM YUM Daily Needs Dry Fruits Combo Pack</t>
   </si>
   <si>
-    <t>Order No: 402574</t>
-  </si>
-  <si>
-    <t>Order No: 387654</t>
-  </si>
-  <si>
-    <t>Order No: 752291</t>
+    <t>Order No: 790085</t>
   </si>
 </sst>
 </file>
@@ -460,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE31353-1D83-4AE8-8D94-166BFB2E101A}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +468,7 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="25.7109375" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -536,10 +533,10 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
